--- a/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_JPN.xlsx
+++ b/2019/总体管理/Levi‘s CMS Operation&Maintenance Request List_JPN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Server\Tree Sapling\03 Levi's\gitCube-levisProject\2019\总体管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6929661E-E2E2-45CA-B39C-9A58FC720244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BE867-C064-4005-ACE6-08DDDAD4F3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>*</t>
   </si>
@@ -263,12 +263,173 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>2019/09/25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/10/03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/10/03】
+2F右侧屏幕，左侧黑屏，无法显示内容
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>故障对应</t>
+  </si>
+  <si>
+    <t>0020028716</t>
+  </si>
+  <si>
+    <t>LS Harajyuku Flagship Store</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>ToKyo</t>
+  </si>
+  <si>
+    <t>152545</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/10/04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Yan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/09/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刘琪</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郭文博</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王丽</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/10/04】
+插座松动，有接触不良，电气供应商上门更换备品座，已恢复</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/10/04】
+等待设备更换后，重新绑屏幕并发布内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/09/19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/09/23</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/09/19】
+门头左侧屏幕无法播放内容
+【2019/09/20】
+1F，2F右侧屏幕全部无法播放内容
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/09/21】
+确认为设备网络不良导致播放问题
+【2019/09/22】
+网络不良导致无法远程维护，安排运维人员携带设备上面调试
+【2019/09/23】
+客户网络恢复，已使用设备替换门店设备，内容正常投放
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/08/20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/08/20】
+1F右侧屏幕无法播放内容
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/08/20】
+指导客户重启设备后恢复播放</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/08/02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152548
+150265
+150298
+152529</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【2019/08/02】
+2F左侧屏幕无法播放内容
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2019/08/02】
+指导客户重启设备后恢复播放</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150312
+152549
+152552
+150308</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>114790
+150312
+152549
+152552
+150308
+152545
+152543
+152553
+152549</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -277,6 +438,7 @@
     <numFmt numFmtId="179" formatCode="m/d;@"/>
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0000\ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -550,7 +712,7 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +902,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="182" fontId="17" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="17" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Grey" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -755,7 +925,322 @@
     <cellStyle name="脱浦 [0.00]_laroux" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="脱浦_laroux" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="147">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3255,7 +3740,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N6:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="12"/>
@@ -3341,7 +3826,7 @@
       </c>
       <c r="S2" s="15">
         <f>COUNTA(B6:B74)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T2" s="14" t="s">
         <v>1</v>
@@ -3386,7 +3871,7 @@
       <c r="S3" s="15">
         <f>COUNTIF(B:B,"确认
 完成")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="14" t="s">
         <v>2</v>
@@ -3527,30 +4012,68 @@
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="48">
       <c r="A6" s="38">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="43"/>
+      <c r="B6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="53">
+        <v>1</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="U6" s="51"/>
       <c r="V6" s="52"/>
       <c r="W6" s="16"/>
@@ -3562,30 +4085,68 @@
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1">
+    <row r="7" spans="1:30" s="2" customFormat="1" ht="48">
       <c r="A7" s="38">
         <f t="shared" ref="A7:A70" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
+      <c r="B7" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="53">
+        <v>1</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="U7" s="51"/>
       <c r="V7" s="52"/>
       <c r="W7" s="16"/>
@@ -3607,30 +4168,68 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" ht="24">
+    <row r="8" spans="1:30" s="2" customFormat="1" ht="108">
       <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="43"/>
+      <c r="B8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="53">
+        <v>3</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="U8" s="51"/>
       <c r="V8" s="52"/>
       <c r="W8" s="16"/>
@@ -3652,30 +4251,68 @@
       <c r="AC8" s="23"/>
       <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" ht="24">
+    <row r="9" spans="1:30" s="2" customFormat="1" ht="48">
       <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
+      <c r="B9" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="53">
+        <v>1</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>67</v>
+      </c>
       <c r="U9" s="51"/>
       <c r="V9" s="52"/>
       <c r="W9" s="16"/>
@@ -3697,32 +4334,64 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" ht="24">
-      <c r="A10" s="38">
+    <row r="10" spans="1:30" s="2" customFormat="1" ht="48">
+      <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="52"/>
+      <c r="B10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="54">
+        <v>1</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="16"/>
       <c r="X10" s="20" t="s">
         <v>49</v>
@@ -3757,7 +4426,7 @@
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="32"/>
@@ -3796,7 +4465,7 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="32"/>
@@ -3833,7 +4502,7 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="30"/>
       <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
@@ -3868,7 +4537,7 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="30"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="32"/>
@@ -3903,7 +4572,7 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="30"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="32"/>
@@ -3938,7 +4607,7 @@
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="30"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="32"/>
@@ -3973,7 +4642,7 @@
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="54"/>
       <c r="O17" s="30"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="32"/>
@@ -4008,7 +4677,7 @@
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="30"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="32"/>
@@ -4043,7 +4712,7 @@
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="30"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="32"/>
@@ -4078,7 +4747,7 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="N20" s="54"/>
       <c r="O20" s="30"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="32"/>
@@ -4113,7 +4782,7 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="30"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="32"/>
@@ -4148,7 +4817,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="30"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
@@ -4183,7 +4852,7 @@
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="30"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="32"/>
@@ -4218,7 +4887,7 @@
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="30"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="32"/>
@@ -4253,7 +4922,7 @@
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="54"/>
       <c r="O25" s="30"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="32"/>
@@ -4288,7 +4957,7 @@
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="30"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="32"/>
@@ -4323,7 +4992,7 @@
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="54"/>
       <c r="O27" s="30"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="32"/>
@@ -4358,7 +5027,7 @@
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="N28" s="54"/>
       <c r="O28" s="30"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="32"/>
@@ -4393,7 +5062,7 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="30"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="32"/>
@@ -4428,7 +5097,7 @@
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="30"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="32"/>
@@ -4463,7 +5132,7 @@
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="30"/>
       <c r="P31" s="45"/>
       <c r="Q31" s="32"/>
@@ -4498,7 +5167,7 @@
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="30"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="32"/>
@@ -4533,7 +5202,7 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="30"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="32"/>
@@ -4568,7 +5237,7 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="N34" s="54"/>
       <c r="O34" s="30"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="32"/>
@@ -4603,7 +5272,7 @@
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
+      <c r="N35" s="54"/>
       <c r="O35" s="30"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="32"/>
@@ -4638,7 +5307,7 @@
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+      <c r="N36" s="54"/>
       <c r="O36" s="30"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="32"/>
@@ -4673,7 +5342,7 @@
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="30"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="32"/>
@@ -4708,7 +5377,7 @@
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="54"/>
       <c r="O38" s="30"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="32"/>
@@ -4743,7 +5412,7 @@
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="54"/>
       <c r="O39" s="30"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="32"/>
@@ -4778,7 +5447,7 @@
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+      <c r="N40" s="54"/>
       <c r="O40" s="30"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="32"/>
@@ -4813,7 +5482,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="54"/>
       <c r="O41" s="30"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="32"/>
@@ -4848,7 +5517,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+      <c r="N42" s="54"/>
       <c r="O42" s="30"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="32"/>
@@ -4883,7 +5552,7 @@
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+      <c r="N43" s="54"/>
       <c r="O43" s="30"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="32"/>
@@ -4918,7 +5587,7 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
+      <c r="N44" s="54"/>
       <c r="O44" s="30"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="32"/>
@@ -4953,7 +5622,7 @@
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="30"/>
       <c r="P45" s="45"/>
       <c r="Q45" s="32"/>
@@ -4988,7 +5657,7 @@
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
+      <c r="N46" s="54"/>
       <c r="O46" s="30"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="32"/>
@@ -5023,7 +5692,7 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="54"/>
       <c r="O47" s="30"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="32"/>
@@ -5058,7 +5727,7 @@
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
+      <c r="N48" s="54"/>
       <c r="O48" s="30"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="32"/>
@@ -5093,7 +5762,7 @@
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="54"/>
       <c r="O49" s="30"/>
       <c r="P49" s="45"/>
       <c r="Q49" s="32"/>
@@ -5128,7 +5797,7 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
+      <c r="N50" s="54"/>
       <c r="O50" s="30"/>
       <c r="P50" s="45"/>
       <c r="Q50" s="32"/>
@@ -5163,7 +5832,7 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
+      <c r="N51" s="54"/>
       <c r="O51" s="30"/>
       <c r="P51" s="45"/>
       <c r="Q51" s="32"/>
@@ -5191,7 +5860,7 @@
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
+      <c r="N52" s="54"/>
       <c r="O52" s="30"/>
       <c r="P52" s="45"/>
       <c r="Q52" s="32"/>
@@ -5219,7 +5888,7 @@
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="54"/>
       <c r="O53" s="30"/>
       <c r="P53" s="45"/>
       <c r="Q53" s="32"/>
@@ -5247,7 +5916,7 @@
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="N54" s="54"/>
       <c r="O54" s="30"/>
       <c r="P54" s="45"/>
       <c r="Q54" s="32"/>
@@ -5275,7 +5944,7 @@
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="54"/>
       <c r="O55" s="30"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="32"/>
@@ -5303,7 +5972,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
+      <c r="N56" s="54"/>
       <c r="O56" s="30"/>
       <c r="P56" s="45"/>
       <c r="Q56" s="32"/>
@@ -5332,7 +6001,7 @@
       <c r="K57" s="29"/>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
+      <c r="N57" s="54"/>
       <c r="O57" s="30"/>
       <c r="P57" s="45"/>
       <c r="Q57" s="32"/>
@@ -5361,7 +6030,7 @@
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
+      <c r="N58" s="54"/>
       <c r="O58" s="30"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="32"/>
@@ -5390,7 +6059,7 @@
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="54"/>
       <c r="O59" s="30"/>
       <c r="P59" s="45"/>
       <c r="Q59" s="32"/>
@@ -5419,7 +6088,7 @@
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
+      <c r="N60" s="54"/>
       <c r="O60" s="30"/>
       <c r="P60" s="45"/>
       <c r="Q60" s="32"/>
@@ -5448,7 +6117,7 @@
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="54"/>
       <c r="O61" s="30"/>
       <c r="P61" s="45"/>
       <c r="Q61" s="32"/>
@@ -5477,7 +6146,7 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
+      <c r="N62" s="54"/>
       <c r="O62" s="30"/>
       <c r="P62" s="45"/>
       <c r="Q62" s="32"/>
@@ -5506,7 +6175,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
       <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="54"/>
       <c r="O63" s="30"/>
       <c r="P63" s="45"/>
       <c r="Q63" s="32"/>
@@ -5534,7 +6203,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
       <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
+      <c r="N64" s="54"/>
       <c r="O64" s="30"/>
       <c r="P64" s="45"/>
       <c r="Q64" s="32"/>
@@ -5562,7 +6231,7 @@
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
       <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="54"/>
       <c r="O65" s="30"/>
       <c r="P65" s="45"/>
       <c r="Q65" s="32"/>
@@ -5590,7 +6259,7 @@
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
       <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
+      <c r="N66" s="54"/>
       <c r="O66" s="30"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="32"/>
@@ -5618,7 +6287,7 @@
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
       <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
+      <c r="N67" s="54"/>
       <c r="O67" s="30"/>
       <c r="P67" s="45"/>
       <c r="Q67" s="32"/>
@@ -5646,7 +6315,7 @@
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
+      <c r="N68" s="54"/>
       <c r="O68" s="30"/>
       <c r="P68" s="45"/>
       <c r="Q68" s="32"/>
@@ -5674,7 +6343,7 @@
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
+      <c r="N69" s="54"/>
       <c r="O69" s="30"/>
       <c r="P69" s="45"/>
       <c r="Q69" s="32"/>
@@ -5702,7 +6371,7 @@
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
+      <c r="N70" s="54"/>
       <c r="O70" s="30"/>
       <c r="P70" s="45"/>
       <c r="Q70" s="32"/>
@@ -5730,7 +6399,7 @@
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="30"/>
       <c r="P71" s="45"/>
       <c r="Q71" s="32"/>
@@ -5758,7 +6427,7 @@
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
+      <c r="N72" s="54"/>
       <c r="O72" s="30"/>
       <c r="P72" s="45"/>
       <c r="Q72" s="32"/>
@@ -5786,7 +6455,7 @@
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
+      <c r="N73" s="54"/>
       <c r="O73" s="30"/>
       <c r="P73" s="45"/>
       <c r="Q73" s="32"/>
@@ -5814,7 +6483,7 @@
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
+      <c r="N74" s="54"/>
       <c r="O74" s="30"/>
       <c r="P74" s="45"/>
       <c r="Q74" s="32"/>
@@ -5900,381 +6569,546 @@
     <mergeCell ref="U15:V15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D64:G74 D32:G50 C31:C74 Q28:T29 Q51:T64 Q67:T68 Q72:T74 Q10:T25 Q9 C6:U6 P9:P74 O9:O25 H9:N74 C9:C29 D9:G24 C8:U8">
-    <cfRule type="expression" dxfId="101" priority="424">
+  <conditionalFormatting sqref="R27:T27 R30:T30 Q31:S31 F58:F63 G29:G30 F31:G31 G56:G63 F25:G28 F51:G55 D25:E31 D51:E63 D64:G74 D32:G50 C31:C74 Q28:T29 Q51:T64 Q67:T68 Q72:T74 Q11:T25 U6 P8:U8 C9:Q9 P11:P74 D11:G24 C11:C29 H11:N74 O11:O25">
+    <cfRule type="expression" dxfId="146" priority="478">
       <formula>$B6="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="429">
+    <cfRule type="expression" dxfId="145" priority="483">
       <formula>$B6="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="430">
+    <cfRule type="expression" dxfId="144" priority="484">
       <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:T26">
-    <cfRule type="expression" dxfId="98" priority="421">
+    <cfRule type="expression" dxfId="143" priority="475">
       <formula>$B26="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="422">
+    <cfRule type="expression" dxfId="142" priority="476">
       <formula>$B26="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="423">
+    <cfRule type="expression" dxfId="141" priority="477">
       <formula>$B26="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="95" priority="403">
+    <cfRule type="expression" dxfId="140" priority="457">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="404">
+    <cfRule type="expression" dxfId="139" priority="458">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="405">
+    <cfRule type="expression" dxfId="138" priority="459">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="92" priority="400">
+    <cfRule type="expression" dxfId="137" priority="454">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="401">
+    <cfRule type="expression" dxfId="136" priority="455">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="402">
+    <cfRule type="expression" dxfId="135" priority="456">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="89" priority="391">
+    <cfRule type="expression" dxfId="134" priority="445">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="392">
+    <cfRule type="expression" dxfId="133" priority="446">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="393">
+    <cfRule type="expression" dxfId="132" priority="447">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="86" priority="388">
+    <cfRule type="expression" dxfId="131" priority="442">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="389">
+    <cfRule type="expression" dxfId="130" priority="443">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="390">
+    <cfRule type="expression" dxfId="129" priority="444">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="83" priority="379">
+    <cfRule type="expression" dxfId="128" priority="433">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="380">
+    <cfRule type="expression" dxfId="127" priority="434">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="381">
+    <cfRule type="expression" dxfId="126" priority="435">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="80" priority="373">
+    <cfRule type="expression" dxfId="125" priority="427">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="374">
+    <cfRule type="expression" dxfId="124" priority="428">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="375">
+    <cfRule type="expression" dxfId="123" priority="429">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="77" priority="247">
+    <cfRule type="expression" dxfId="122" priority="301">
       <formula>$B56="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="248">
+    <cfRule type="expression" dxfId="121" priority="302">
       <formula>$B56="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="249">
+    <cfRule type="expression" dxfId="120" priority="303">
       <formula>$B56="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="74" priority="241">
+    <cfRule type="expression" dxfId="119" priority="295">
       <formula>$B57="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="242">
+    <cfRule type="expression" dxfId="118" priority="296">
       <formula>$B57="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="243">
+    <cfRule type="expression" dxfId="117" priority="297">
       <formula>$B57="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q65:T66 Q69:T71">
-    <cfRule type="expression" dxfId="71" priority="235">
+    <cfRule type="expression" dxfId="116" priority="289">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="236">
+    <cfRule type="expression" dxfId="115" priority="290">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="237">
+    <cfRule type="expression" dxfId="114" priority="291">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32:S40">
-    <cfRule type="expression" dxfId="68" priority="139">
+    <cfRule type="expression" dxfId="113" priority="193">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="140">
+    <cfRule type="expression" dxfId="112" priority="194">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="141">
+    <cfRule type="expression" dxfId="111" priority="195">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T40">
-    <cfRule type="expression" dxfId="65" priority="133">
+    <cfRule type="expression" dxfId="110" priority="187">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="134">
+    <cfRule type="expression" dxfId="109" priority="188">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="135">
+    <cfRule type="expression" dxfId="108" priority="189">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:S50">
-    <cfRule type="expression" dxfId="62" priority="127">
+    <cfRule type="expression" dxfId="107" priority="181">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="128">
+    <cfRule type="expression" dxfId="106" priority="182">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="129">
+    <cfRule type="expression" dxfId="105" priority="183">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:T50">
-    <cfRule type="expression" dxfId="59" priority="121">
+    <cfRule type="expression" dxfId="104" priority="175">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="122">
+    <cfRule type="expression" dxfId="103" priority="176">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="123">
+    <cfRule type="expression" dxfId="102" priority="177">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:O64 O27:O28 O67:O68 O72:O74">
-    <cfRule type="expression" dxfId="56" priority="55">
+    <cfRule type="expression" dxfId="101" priority="109">
       <formula>$B27="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="100" priority="110">
       <formula>$B27="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57">
+    <cfRule type="expression" dxfId="99" priority="111">
       <formula>$B27="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:O27">
-    <cfRule type="expression" dxfId="53" priority="52">
+    <cfRule type="expression" dxfId="98" priority="106">
       <formula>$B25="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="97" priority="107">
       <formula>$B25="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="96" priority="108">
       <formula>$B25="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="95" priority="103">
       <formula>$B29="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="94" priority="104">
       <formula>$B29="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="93" priority="105">
       <formula>$B29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="92" priority="100">
       <formula>$B30="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="91" priority="101">
       <formula>$B30="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="90" priority="102">
       <formula>$B30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="89" priority="97">
       <formula>$B31="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>$B31="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="87" priority="99">
       <formula>$B31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="86" priority="94">
       <formula>$B65="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="85" priority="95">
       <formula>$B65="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="84" priority="96">
       <formula>$B65="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="83" priority="91">
       <formula>$B66="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="82" priority="92">
       <formula>$B66="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39">
+    <cfRule type="expression" dxfId="81" priority="93">
       <formula>$B66="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O69">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>$B69="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="79" priority="89">
       <formula>$B69="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>$B69="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O70">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="77" priority="85">
       <formula>$B70="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="76" priority="86">
       <formula>$B70="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="75" priority="87">
       <formula>$B70="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="74" priority="82">
       <formula>$B71="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="73" priority="83">
       <formula>$B71="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>$B71="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O40">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="71" priority="79">
       <formula>$B32="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="70" priority="80">
       <formula>$B32="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="69" priority="81">
       <formula>$B32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:O50">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>$B41="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>$B41="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>$B41="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="65" priority="73">
       <formula>$B24="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="64" priority="74">
       <formula>$B24="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="63" priority="75">
       <formula>$B24="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:U74">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>$B10="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$B10="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>$B10="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9 T9">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>$B9="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$B9="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>$B9="完了"</formula>
+  <conditionalFormatting sqref="U11:U74">
+    <cfRule type="expression" dxfId="62" priority="70">
+      <formula>$B11="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="71">
+      <formula>$B11="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="72">
+      <formula>$B11="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="59" priority="64">
       <formula>$B9="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="58" priority="65">
       <formula>$B9="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="57" priority="66">
       <formula>$B9="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>$B9="暂停"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$B9="取消"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>$B9="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:T7">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="K7:O7">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>$B7="暂停"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>$B7="取消"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>$B7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="53" priority="55">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="57">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:O8">
+    <cfRule type="expression" dxfId="50" priority="52">
+      <formula>$B8="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$B8="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>$B8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9:T9">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$B9="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>$B9="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>$B9="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:Q10">
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$B10="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$B10="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$B10="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="44">
+      <formula>$B10="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="45">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:T10">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$B10="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$B10="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$B10="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:J7">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$B7="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>$B7="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>$B7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:O6">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="24">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:J6">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="21">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$B6="暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$B6="取消"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$B6="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R7">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B7="暂停"</formula>
+      <formula>$B6="暂停"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B7="取消"</formula>
+      <formula>$B6="取消"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$B7="完了"</formula>
+      <formula>$B6="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="X5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$X$6:$X$8</formula1>
     </dataValidation>
